--- a/tabelas.xlsx
+++ b/tabelas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Almoxarifado\Almoxarifado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\Almoxarifado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7334AA19-70AC-4F17-BA87-76476CC46EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D2C21D-2E84-4EE1-BFFD-B08DA48807A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabelas" sheetId="1" r:id="rId1"/>
@@ -20,39 +20,492 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="162">
   <si>
     <t>Produtos</t>
   </si>
   <si>
-    <t>Alfinete</t>
-  </si>
-  <si>
-    <t>Escritório</t>
-  </si>
-  <si>
-    <t>Agulha</t>
-  </si>
-  <si>
     <t>Penso</t>
   </si>
   <si>
-    <t>Teste</t>
-  </si>
-  <si>
     <t>Limpeza</t>
   </si>
   <si>
-    <t>Vacina</t>
-  </si>
-  <si>
-    <t>Covid</t>
-  </si>
-  <si>
-    <t>Bolsonaro</t>
-  </si>
-  <si>
-    <t>tp_material</t>
+    <t xml:space="preserve">AGUA DESTILADA P/ AUTOCLAVE </t>
+  </si>
+  <si>
+    <t>AGUA OXIGENADA 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÁGUA SANITARIA </t>
+  </si>
+  <si>
+    <t>AGULHA 24 G (20X0,55)</t>
+  </si>
+  <si>
+    <t>AGULHA 25/08 OU 25/8</t>
+  </si>
+  <si>
+    <t>AGULHA 30 X 7</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA 25X 0,8</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA 30X 7</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA 30X 8</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA DESC.</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA ESTERIL 40X 1,2</t>
+  </si>
+  <si>
+    <t>ALCOOL EM GEL 70%</t>
+  </si>
+  <si>
+    <t>ALCOOL EM GEL 70% 483ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCOOL IODADO </t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUÍDO 70 %</t>
+  </si>
+  <si>
+    <t>ALGODAO ROLO PACOTE</t>
+  </si>
+  <si>
+    <t>ALMOFADA P/ CARIMBO</t>
+  </si>
+  <si>
+    <t>ALMONTOLIA 250ML</t>
+  </si>
+  <si>
+    <t>ALMONTOLIA 500ML</t>
+  </si>
+  <si>
+    <t>AVENTAL</t>
+  </si>
+  <si>
+    <t>AZUL DE METILENO</t>
+  </si>
+  <si>
+    <t>BALDE 50 L</t>
+  </si>
+  <si>
+    <t>BALDE REFORÇADO 20 L</t>
+  </si>
+  <si>
+    <t>BASTÃO DE COLA QUENTE</t>
+  </si>
+  <si>
+    <t>BOM AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCHA DE AÇO </t>
+  </si>
+  <si>
+    <t>BUCHA DE PRATO</t>
+  </si>
+  <si>
+    <t>CAIXA DE PERFURO CORTANTE 13 L</t>
+  </si>
+  <si>
+    <t>CAIXA DE PERFURO CORTANTE 3 LITROS</t>
+  </si>
+  <si>
+    <t>CAIXA P/ ARQUIVO EM PAPELÃO</t>
+  </si>
+  <si>
+    <t>CAIXA PERFURO CORTANTE 6 LITROS</t>
+  </si>
+  <si>
+    <t>CAIXA TÉRMICA 12L</t>
+  </si>
+  <si>
+    <t>CALCULADORA</t>
+  </si>
+  <si>
+    <t>CAMPO CIRURGICO</t>
+  </si>
+  <si>
+    <t>CANETA AZUL</t>
+  </si>
+  <si>
+    <t>CANETA PRETA</t>
+  </si>
+  <si>
+    <t>CANETA VERMELHA</t>
+  </si>
+  <si>
+    <t>CARBONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATÉTER 22 G </t>
+  </si>
+  <si>
+    <t>CATETER 24 G</t>
+  </si>
+  <si>
+    <t>CLASSIFICADOR C/ ELÁSTICO</t>
+  </si>
+  <si>
+    <t>CLIPS 3/0</t>
+  </si>
+  <si>
+    <t>CLIPS 8/0</t>
+  </si>
+  <si>
+    <t>CLOREXIDINA ALCOOLICA</t>
+  </si>
+  <si>
+    <t>COLA BRANCA</t>
+  </si>
+  <si>
+    <t>COPO DESCARTÁVEL</t>
+  </si>
+  <si>
+    <t>COPO DESCARTAVEL P/ CAFÉ</t>
+  </si>
+  <si>
+    <t>CORRETIVO</t>
+  </si>
+  <si>
+    <t>COTONETE</t>
+  </si>
+  <si>
+    <t>DESINFETANTE 1L</t>
+  </si>
+  <si>
+    <t>DESINFETANTE 5L</t>
+  </si>
+  <si>
+    <t>DESINFETANTE HOSP. 5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DETERGENTE </t>
+  </si>
+  <si>
+    <t>ELASTICO DE BORRACHA</t>
+  </si>
+  <si>
+    <t>ENVELOPE A4 PARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPO </t>
+  </si>
+  <si>
+    <t>ESCADA DE 8 DEGRAUS</t>
+  </si>
+  <si>
+    <t>ESCALPE</t>
+  </si>
+  <si>
+    <t>ESPARADRAPO</t>
+  </si>
+  <si>
+    <t>ESPECULO</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE</t>
+  </si>
+  <si>
+    <t>ESTOPA</t>
+  </si>
+  <si>
+    <t>EVA (VERMELHO E LARANJA)</t>
+  </si>
+  <si>
+    <t>EVA (VERMELHO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA EM CORES </t>
+  </si>
+  <si>
+    <t>EXTRATOR</t>
+  </si>
+  <si>
+    <t>FIO DE NYLON AGULHADO</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA DUPLA FACE</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA FINA</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA LARGA</t>
+  </si>
+  <si>
+    <t>FITA AUTOCLAVE</t>
+  </si>
+  <si>
+    <t>FITA CREPE</t>
+  </si>
+  <si>
+    <t>FLANELA</t>
+  </si>
+  <si>
+    <t>GASE ESTÉREO (PCT)</t>
+  </si>
+  <si>
+    <t>GRAMPEADOR</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6</t>
+  </si>
+  <si>
+    <t>HIPOCLORITO 5L</t>
+  </si>
+  <si>
+    <t>IODOPOVIDONA</t>
+  </si>
+  <si>
+    <t>LAMINA P/ MICROSCOPIA</t>
+  </si>
+  <si>
+    <t>LAMINA DE BISTURI Nº 24</t>
+  </si>
+  <si>
+    <t>LÁPIS C/ BORRACHA</t>
+  </si>
+  <si>
+    <t>LAPISEIRA</t>
+  </si>
+  <si>
+    <t>LENÇO  DESCARTAVEL</t>
+  </si>
+  <si>
+    <t>LENÇOL DESCARTAVEL</t>
+  </si>
+  <si>
+    <t>LIVRO ATA</t>
+  </si>
+  <si>
+    <t>LIVRO DE PROTOCOLO</t>
+  </si>
+  <si>
+    <t>LIXEIRA TELADA</t>
+  </si>
+  <si>
+    <t>LUVA CIRURGICA ESTERIL</t>
+  </si>
+  <si>
+    <t>LUVA DESCARTÁVEL G</t>
+  </si>
+  <si>
+    <t>LUVA DESCARTÁVEL M</t>
+  </si>
+  <si>
+    <t>LUVA DESCARTAVEL P</t>
+  </si>
+  <si>
+    <t>LUVA PARA LIMPEZA</t>
+  </si>
+  <si>
+    <t>MARCA TEXTO</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL</t>
+  </si>
+  <si>
+    <t>MÁSCARA N95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOB GIRATÓRIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCULOS DE PROTEÇÃO </t>
+  </si>
+  <si>
+    <t>PÁ DE LIXO</t>
+  </si>
+  <si>
+    <t>PANO DE CHÃO</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO</t>
+  </si>
+  <si>
+    <t>PAPEL GRAU CIRURGICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPEL HIGIENICO </t>
+  </si>
+  <si>
+    <t>PAPEL MADEIRA</t>
+  </si>
+  <si>
+    <t>PAPEL OFICIO (RESMA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPEL TOALHA </t>
+  </si>
+  <si>
+    <t>PASTA AZ</t>
+  </si>
+  <si>
+    <t>PASTA L</t>
+  </si>
+  <si>
+    <t>PASTA SUSPENSA</t>
+  </si>
+  <si>
+    <t>PASTA TRANSPARENTE</t>
+  </si>
+  <si>
+    <t>PEDRA SANITÁRIA</t>
+  </si>
+  <si>
+    <t>PERFURADOR</t>
+  </si>
+  <si>
+    <t>PILHA PALITO</t>
+  </si>
+  <si>
+    <t>PILHA REDONDA LR14C</t>
+  </si>
+  <si>
+    <t>PILHA ZC 9V QUADRADA</t>
+  </si>
+  <si>
+    <t>PILOTO AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILOTO AZUL P/ QUADRO </t>
+  </si>
+  <si>
+    <t>PILOTO PRETO (PERMANENTE)</t>
+  </si>
+  <si>
+    <t>PILOTO PRETO P/ QUADRO</t>
+  </si>
+  <si>
+    <t>PILOTO VERMELHO</t>
+  </si>
+  <si>
+    <t>PILOTO VERMELHO P/ QUADRO</t>
+  </si>
+  <si>
+    <t>POST IT</t>
+  </si>
+  <si>
+    <t>REGUA</t>
+  </si>
+  <si>
+    <t>REPELENTE DE INSETOS</t>
+  </si>
+  <si>
+    <t>RODO</t>
+  </si>
+  <si>
+    <t>SABÃO DE CÔCO EM BARRA</t>
+  </si>
+  <si>
+    <t>SABÃO EM BARRA</t>
+  </si>
+  <si>
+    <t>SABÃO EM PÓ</t>
+  </si>
+  <si>
+    <t>SABÃO LIQUIDO</t>
+  </si>
+  <si>
+    <t>SABÃO LIQUIDO (5Lt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACO DE LIXO BRANCO INFECTANTE 100 LT (100 UNID) </t>
+  </si>
+  <si>
+    <t>SACO DE LIXO BRANCO INFECTANTE 50 L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO INFECTANTE 100 L</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO PRETO (100 lt)</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO PRETO (30 lt)</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO PRETO (50 lt)</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO PRETO (60 lt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERINGA 10 ML </t>
+  </si>
+  <si>
+    <t>SERINGA 1ML C/ AGÚLHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERINGA 20 ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERINGA 3 ML </t>
+  </si>
+  <si>
+    <t>FITA MICROPOROSA</t>
+  </si>
+  <si>
+    <t>SERINGA 5 ML</t>
+  </si>
+  <si>
+    <t>SORO FISIOLOGICO DE 500ML</t>
+  </si>
+  <si>
+    <t>SORO RINGER LACTATO</t>
+  </si>
+  <si>
+    <t>SUPORTE DE PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>SUPORTE PARA ÁGUA</t>
+  </si>
+  <si>
+    <t>SUPORTE PARA SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>TESOURA</t>
+  </si>
+  <si>
+    <t>TINTA P/CARIMBO</t>
+  </si>
+  <si>
+    <t>TOUCA</t>
+  </si>
+  <si>
+    <t>TUBO C/ GEL SEPEARADOR AT. COAGULO</t>
+  </si>
+  <si>
+    <t>VASELINA LIQUIDA</t>
+  </si>
+  <si>
+    <t>VASELINA SOLIDA</t>
+  </si>
+  <si>
+    <t>VASSOURA</t>
+  </si>
+  <si>
+    <t>VISEIRA</t>
+  </si>
+  <si>
+    <t>DISPENSER P PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Escritorio</t>
+  </si>
+  <si>
+    <t>PENSO</t>
   </si>
 </sst>
 </file>
@@ -195,7 +648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +826,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -536,52 +1001,62 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,7 +1072,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,62 +1368,1296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A147 A134" xr:uid="{482167DE-64F7-4433-8CCE-761247D68BDC}">
+      <formula1>$B$2:$B$93</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>